--- a/backend/utils/SAMPLE.xlsx
+++ b/backend/utils/SAMPLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emma\Documents\code\dinner\backend\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE45AED-3747-40A7-9E78-5946C2D8370E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D67F85-B43E-4E60-A1B5-FBDAAF128C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Timestamp</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>Okoye Mcpaul</t>
+  </si>
+  <si>
+    <t>Udegbe Chidibere</t>
+  </si>
+  <si>
+    <t>audegbe2003@gmail.com</t>
+  </si>
+  <si>
+    <t>21/ENG05/064</t>
   </si>
 </sst>
 </file>
@@ -380,15 +389,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
@@ -431,7 +440,7 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
@@ -448,6 +457,32 @@
       </c>
       <c r="H2">
         <v>111111111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>544434</v>
+      </c>
+      <c r="H3">
+        <v>556934597</v>
       </c>
     </row>
   </sheetData>

--- a/backend/utils/SAMPLE.xlsx
+++ b/backend/utils/SAMPLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emma\Documents\code\dinner\backend\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D67F85-B43E-4E60-A1B5-FBDAAF128C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069A9E54-2EA2-4C08-A101-4123584476A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Timestamp</t>
   </si>
@@ -71,6 +71,39 @@
   </si>
   <si>
     <t>21/ENG05/064</t>
+  </si>
+  <si>
+    <t>Francis Emmanuel</t>
+  </si>
+  <si>
+    <t>emmanuelokwudiri2005@gmail.com</t>
+  </si>
+  <si>
+    <t>Jethro Mamman</t>
+  </si>
+  <si>
+    <t>jethromamman005@gmail.com</t>
+  </si>
+  <si>
+    <t>yerinmenetama@gmail.com</t>
+  </si>
+  <si>
+    <t>Tama Yerinmene Wizdom</t>
+  </si>
+  <si>
+    <t>Computer Engineering</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>21/ENG05/022</t>
+  </si>
+  <si>
+    <t>21/SCI01/063</t>
+  </si>
+  <si>
+    <t>22/ENG06/039</t>
   </si>
 </sst>
 </file>
@@ -389,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +499,7 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
@@ -483,6 +516,84 @@
       </c>
       <c r="H3">
         <v>556934597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>543531</v>
+      </c>
+      <c r="H4">
+        <v>124567456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>549244</v>
+      </c>
+      <c r="H5">
+        <v>342678935</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>503076</v>
+      </c>
+      <c r="H6">
+        <v>246967826</v>
       </c>
     </row>
   </sheetData>

--- a/backend/utils/SAMPLE.xlsx
+++ b/backend/utils/SAMPLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emma\Documents\code\dinner\backend\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069A9E54-2EA2-4C08-A101-4123584476A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8612EDB-E399-4AAC-A189-712E3642ABD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>Timestamp</t>
   </si>
@@ -104,16 +105,141 @@
   </si>
   <si>
     <t>22/ENG06/039</t>
+  </si>
+  <si>
+    <t>Abdurrahman Jaiyeola</t>
+  </si>
+  <si>
+    <t>olamidejaiyeola31@gmail.com</t>
+  </si>
+  <si>
+    <t>21/ENG04/016</t>
+  </si>
+  <si>
+    <t>Electrical Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Obiajulu Chinedu Promise</t>
+  </si>
+  <si>
+    <t>chinedupromise200@gmail.com</t>
+  </si>
+  <si>
+    <t>23/ENG05/051</t>
+  </si>
+  <si>
+    <t>300L</t>
+  </si>
+  <si>
+    <t>Ukpai Samuel Chimnabiaozo</t>
+  </si>
+  <si>
+    <t>ukpsamuel67@gmail.com</t>
+  </si>
+  <si>
+    <t>22/ENG04/038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anenechukwu Saintchristopher </t>
+  </si>
+  <si>
+    <t>saintchristopherka@gmail.com</t>
+  </si>
+  <si>
+    <t>21/ENG09/005</t>
+  </si>
+  <si>
+    <t>Aeronautics Engineering</t>
+  </si>
+  <si>
+    <t>oyetola oyejobi</t>
+  </si>
+  <si>
+    <t>oyetolaoyejobi@gmail.com</t>
+  </si>
+  <si>
+    <t>22/eng05/065</t>
+  </si>
+  <si>
+    <t>400L</t>
+  </si>
+  <si>
+    <t>odudimu david</t>
+  </si>
+  <si>
+    <t>muyiwa.odudimu@gmail.com</t>
+  </si>
+  <si>
+    <t>24/eng03/019</t>
+  </si>
+  <si>
+    <t>200L</t>
+  </si>
+  <si>
+    <t>ougochukwu240@gmail.com</t>
+  </si>
+  <si>
+    <t>24/eng03/022</t>
+  </si>
+  <si>
+    <t>okolo ugochukwu</t>
+  </si>
+  <si>
+    <t>odudimu ayomide</t>
+  </si>
+  <si>
+    <t>chinweodu@icloud.com</t>
+  </si>
+  <si>
+    <t>22/eng03/025</t>
+  </si>
+  <si>
+    <t>gideonolaoye05@gmail.com</t>
+  </si>
+  <si>
+    <t>Ogbonnaya Chukwuemeka Howell</t>
+  </si>
+  <si>
+    <t>Chukshowells@gmail.com</t>
+  </si>
+  <si>
+    <t>21/ENG04/024</t>
+  </si>
+  <si>
+    <t>Civil Engineering</t>
+  </si>
+  <si>
+    <t>Olaoye Toluwanimi Gideon</t>
+  </si>
+  <si>
+    <t>21/ENG09/024</t>
+  </si>
+  <si>
+    <t>Awa Nisan Tojah</t>
+  </si>
+  <si>
+    <t>nisanawa5@gmail.com</t>
+  </si>
+  <si>
+    <t>21/ENG04/007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,14 +262,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,16 +550,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
@@ -525,7 +653,7 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
@@ -551,7 +679,7 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
@@ -596,7 +724,304 @@
         <v>246967826</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <v>500001</v>
+      </c>
+      <c r="H7">
+        <v>248190934</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>570664</v>
+      </c>
+      <c r="H8">
+        <v>987698842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9">
+        <v>547758</v>
+      </c>
+      <c r="H9">
+        <v>467800644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10">
+        <v>574650</v>
+      </c>
+      <c r="H10">
+        <v>379004332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>572946</v>
+      </c>
+      <c r="H11">
+        <v>325046940</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12">
+        <v>519384</v>
+      </c>
+      <c r="H12">
+        <v>906370824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13">
+        <v>574030</v>
+      </c>
+      <c r="H13">
+        <v>442120757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14">
+        <v>564422</v>
+      </c>
+      <c r="H14">
+        <v>462120857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15">
+        <v>549601</v>
+      </c>
+      <c r="H15">
+        <v>611889428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16">
+        <v>550517</v>
+      </c>
+      <c r="H16">
+        <v>665078961</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17">
+        <v>548904</v>
+      </c>
+      <c r="H17">
+        <v>608585106</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{C75E4AF1-71F5-4366-9970-2F468D8C0625}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{B2AD608D-E7DB-46D7-9E43-EC363CAB1F8D}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{C7021D0E-80FF-4A6E-A3B5-769596CEC528}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{57B4A9CA-F6C7-4B39-BC70-FAEDEF8FBAB3}"/>
+    <hyperlink ref="C12" r:id="rId5" xr:uid="{F97E61A4-F07D-4ED6-BF97-184B5ECCDC5E}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{09DA26CA-35B9-44B5-8080-1A77A71000F5}"/>
+    <hyperlink ref="C14" r:id="rId7" xr:uid="{DD3C958B-802C-4544-80C4-6ADC1C2E4BCC}"/>
+    <hyperlink ref="C15" r:id="rId8" xr:uid="{7BBECB8A-8C61-414C-B3BD-7140D77351AA}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{6B1E517D-5E31-4579-8C52-A51F5C6DD0A4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/backend/utils/SAMPLE.xlsx
+++ b/backend/utils/SAMPLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emma\Documents\code\dinner\backend\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8612EDB-E399-4AAC-A189-712E3642ABD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1693A226-4908-4391-A6C4-BC496507E9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
   <si>
     <t>Timestamp</t>
   </si>
@@ -222,6 +221,15 @@
   </si>
   <si>
     <t>21/ENG04/007</t>
+  </si>
+  <si>
+    <t>Daniel Jephthah Guzoro</t>
+  </si>
+  <si>
+    <t>24/ENG04/008</t>
+  </si>
+  <si>
+    <t>jephdnl001@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -550,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,6 +1018,32 @@
         <v>608585106</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18">
+        <v>575512</v>
+      </c>
+      <c r="H18">
+        <v>284390292</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" xr:uid="{C75E4AF1-71F5-4366-9970-2F468D8C0625}"/>
@@ -1021,6 +1055,7 @@
     <hyperlink ref="C14" r:id="rId7" xr:uid="{DD3C958B-802C-4544-80C4-6ADC1C2E4BCC}"/>
     <hyperlink ref="C15" r:id="rId8" xr:uid="{7BBECB8A-8C61-414C-B3BD-7140D77351AA}"/>
     <hyperlink ref="C17" r:id="rId9" xr:uid="{6B1E517D-5E31-4579-8C52-A51F5C6DD0A4}"/>
+    <hyperlink ref="C18" r:id="rId10" xr:uid="{FD483872-4DD5-460B-A3E6-F793AE59ACD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
